--- a/Módulo 11 - Formulas avançadas/aula-somarproduto.xlsx
+++ b/Módulo 11 - Formulas avançadas/aula-somarproduto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\10 Fórmulas avançadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Curso Excel do básico ao avançado\Módulo 11 - Formulas avançadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BaseDados" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="30">
   <si>
     <t>Mês</t>
   </si>
@@ -86,15 +86,48 @@
   <si>
     <t>Quantidade</t>
   </si>
+  <si>
+    <t>Processo similar</t>
+  </si>
+  <si>
+    <t>Disponível em :Fórmulas/Mais funções/Estatísticas</t>
+  </si>
+  <si>
+    <t>Forma clássica: SomarProduto(matriz1;matriz2;...)</t>
+  </si>
+  <si>
+    <t>Forma avançada: dois ou mais critérios simples)</t>
+  </si>
+  <si>
+    <t>Dois ou mais critérios duplos</t>
+  </si>
+  <si>
+    <t>matriz é o intervalo</t>
+  </si>
+  <si>
+    <t>Quando se tem apenas uma condição insere um () adicional e insere -- no início</t>
+  </si>
+  <si>
+    <t>EX: =SOMARPRODUTO(--(TbItemVenda[Vendedor]=B6);TbItemVenda[Quantidade];TbItemVenda[Preço Unitário])</t>
+  </si>
+  <si>
+    <t>O sinal de adição é similar a operação lógica ou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sinal de multiplicação é similar a operação lógica  &amp; </t>
+  </si>
+  <si>
+    <t>SOMARPRODUTO(matriz1=critério1*matriz2=ccriterio2;matriz3;matriz4)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -247,14 +280,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -263,34 +296,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -301,33 +334,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -342,13 +375,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -365,7 +402,128 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -392,7 +550,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -514,14 +672,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbItemVenda" displayName="TbItemVenda" ref="A1:E273" totalsRowShown="0" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbItemVenda" displayName="TbItemVenda" ref="A1:E273" tableBorderDxfId="10">
   <autoFilter ref="A1:E273"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Mês" dataDxfId="4"/>
-    <tableColumn id="2" name="Ano" dataDxfId="3"/>
-    <tableColumn id="3" name="Vendedor" dataDxfId="2"/>
-    <tableColumn id="4" name="Quantidade" dataDxfId="1" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" name="Preço Unitário" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="Mês" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Ano" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Vendedor" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Quantidade" dataDxfId="6" totalsRowDxfId="3" dataCellStyle="Vírgula"/>
+    <tableColumn id="5" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -824,9 +982,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -834,10 +994,9 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -854,7 +1013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -870,9 +1029,8 @@
       <c r="E2" s="30">
         <v>21.97406340057637</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -888,9 +1046,8 @@
       <c r="E3" s="31">
         <v>54.121621621621621</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -906,9 +1063,8 @@
       <c r="E4" s="30">
         <v>37.773946360153253</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -924,9 +1080,8 @@
       <c r="E5" s="31">
         <v>32.54807692307692</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -942,9 +1097,8 @@
       <c r="E6" s="30">
         <v>75.493006993006986</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -960,9 +1114,8 @@
       <c r="E7" s="31">
         <v>37.577922077922075</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -978,9 +1131,8 @@
       <c r="E8" s="30">
         <v>37.851851851851855</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -996,9 +1148,8 @@
       <c r="E9" s="31">
         <v>45.414035087719299</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1014,9 +1165,8 @@
       <c r="E10" s="30">
         <v>11.488721804511279</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -1032,9 +1182,8 @@
       <c r="E11" s="31">
         <v>38.138972809667671</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1050,9 +1199,8 @@
       <c r="E12" s="30">
         <v>69.216981132075475</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -1068,9 +1216,8 @@
       <c r="E13" s="31">
         <v>39.170278637770899</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -1086,9 +1233,8 @@
       <c r="E14" s="30">
         <v>80.36363636363636</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -1104,9 +1250,8 @@
       <c r="E15" s="31">
         <v>45.549618320610683</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -1122,9 +1267,8 @@
       <c r="E16" s="30">
         <v>53.009554140127392</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -1140,9 +1284,8 @@
       <c r="E17" s="31">
         <v>58.197718631178709</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -1158,9 +1301,8 @@
       <c r="E18" s="30">
         <v>15.84829721362229</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -1176,9 +1318,8 @@
       <c r="E19" s="31">
         <v>52.767441860465119</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -1194,9 +1335,8 @@
       <c r="E20" s="30">
         <v>33.703947368421055</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>3</v>
       </c>
@@ -1212,9 +1352,8 @@
       <c r="E21" s="31">
         <v>68.950980392156865</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -1230,9 +1369,8 @@
       <c r="E22" s="30">
         <v>41.288235294117648</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>3</v>
       </c>
@@ -1248,9 +1386,8 @@
       <c r="E23" s="31">
         <v>36.264534883720927</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -1266,9 +1403,8 @@
       <c r="E24" s="30">
         <v>54.484496124031011</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -1284,9 +1420,8 @@
       <c r="E25" s="31">
         <v>62.432234432234431</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -1302,9 +1437,8 @@
       <c r="E26" s="30">
         <v>15.904761904761905</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -1320,9 +1454,8 @@
       <c r="E27" s="31">
         <v>21.743243243243242</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -1338,9 +1471,8 @@
       <c r="E28" s="30">
         <v>32.256</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -1356,9 +1488,8 @@
       <c r="E29" s="31">
         <v>47.20655737704918</v>
       </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -1374,9 +1505,8 @@
       <c r="E30" s="30">
         <v>35.003236245954696</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>4</v>
       </c>
@@ -1392,9 +1522,8 @@
       <c r="E31" s="31">
         <v>60.86451612903226</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -1410,9 +1539,8 @@
       <c r="E32" s="30">
         <v>52.805860805860803</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -1428,9 +1556,8 @@
       <c r="E33" s="31">
         <v>35.378223495702002</v>
       </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -1446,9 +1573,8 @@
       <c r="E34" s="30">
         <v>15.557620817843866</v>
       </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>5</v>
       </c>
@@ -1464,9 +1590,8 @@
       <c r="E35" s="31">
         <v>79.475655430711612</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -1482,9 +1607,8 @@
       <c r="E36" s="30">
         <v>62.048632218844986</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>5</v>
       </c>
@@ -1500,9 +1624,8 @@
       <c r="E37" s="31">
         <v>41.861271676300575</v>
       </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -1518,9 +1641,8 @@
       <c r="E38" s="30">
         <v>24.752542372881354</v>
       </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>5</v>
       </c>
@@ -1536,9 +1658,8 @@
       <c r="E39" s="31">
         <v>76.281786941580762</v>
       </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -1554,9 +1675,8 @@
       <c r="E40" s="30">
         <v>77.276119402985074</v>
       </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>5</v>
       </c>
@@ -1572,9 +1692,8 @@
       <c r="E41" s="31">
         <v>22.074712643678161</v>
       </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -1590,9 +1709,8 @@
       <c r="E42" s="30">
         <v>12.157142857142857</v>
       </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>6</v>
       </c>
@@ -1608,9 +1726,8 @@
       <c r="E43" s="31">
         <v>73.08754208754209</v>
       </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -1626,9 +1743,8 @@
       <c r="E44" s="30">
         <v>26.396449704142011</v>
       </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>6</v>
       </c>
@@ -1644,9 +1760,8 @@
       <c r="E45" s="31">
         <v>39.005763688760808</v>
       </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -1662,9 +1777,8 @@
       <c r="E46" s="30">
         <v>39.29179331306991</v>
       </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>6</v>
       </c>
@@ -1680,9 +1794,8 @@
       <c r="E47" s="31">
         <v>34.300653594771241</v>
       </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -1698,9 +1811,8 @@
       <c r="E48" s="30">
         <v>42.148264984227133</v>
       </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>6</v>
       </c>
@@ -1716,9 +1828,8 @@
       <c r="E49" s="31">
         <v>47.345821325648416</v>
       </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -1734,9 +1845,8 @@
       <c r="E50" s="30">
         <v>23.65680473372781</v>
       </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>7</v>
       </c>
@@ -1752,9 +1862,8 @@
       <c r="E51" s="31">
         <v>38.996015936254977</v>
       </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -1770,9 +1879,8 @@
       <c r="E52" s="30">
         <v>31.617816091954023</v>
       </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>7</v>
       </c>
@@ -1788,9 +1896,8 @@
       <c r="E53" s="31">
         <v>62.73260073260073</v>
       </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -1806,9 +1913,8 @@
       <c r="E54" s="30">
         <v>50.909385113268605</v>
       </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>7</v>
       </c>
@@ -1824,9 +1930,8 @@
       <c r="E55" s="31">
         <v>38.117449664429529</v>
       </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>7</v>
       </c>
@@ -1842,9 +1947,8 @@
       <c r="E56" s="30">
         <v>23.577464788732396</v>
       </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>7</v>
       </c>
@@ -1860,9 +1964,8 @@
       <c r="E57" s="31">
         <v>15.302052785923754</v>
       </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>8</v>
       </c>
@@ -1878,9 +1981,8 @@
       <c r="E58" s="30">
         <v>14.346570397111913</v>
       </c>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>8</v>
       </c>
@@ -1896,9 +1998,8 @@
       <c r="E59" s="31">
         <v>16.324712643678161</v>
       </c>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>8</v>
       </c>
@@ -1914,9 +2015,8 @@
       <c r="E60" s="30">
         <v>62.786206896551725</v>
       </c>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>8</v>
       </c>
@@ -1932,9 +2032,8 @@
       <c r="E61" s="31">
         <v>15.33939393939394</v>
       </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>8</v>
       </c>
@@ -1950,9 +2049,8 @@
       <c r="E62" s="30">
         <v>71.055921052631575</v>
       </c>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>8</v>
       </c>
@@ -1968,9 +2066,8 @@
       <c r="E63" s="31">
         <v>18.298780487804876</v>
       </c>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>8</v>
       </c>
@@ -1986,9 +2083,8 @@
       <c r="E64" s="30">
         <v>53.855907780979827</v>
       </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>8</v>
       </c>
@@ -2004,9 +2100,8 @@
       <c r="E65" s="31">
         <v>65.927444794952677</v>
       </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>9</v>
       </c>
@@ -2022,9 +2117,8 @@
       <c r="E66" s="30">
         <v>21.330769230769231</v>
       </c>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>9</v>
       </c>
@@ -2040,9 +2134,8 @@
       <c r="E67" s="31">
         <v>49.180379746835442</v>
       </c>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>9</v>
       </c>
@@ -2058,9 +2151,8 @@
       <c r="E68" s="30">
         <v>39.247093023255815</v>
       </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>9</v>
       </c>
@@ -2076,9 +2168,8 @@
       <c r="E69" s="31">
         <v>82.12</v>
       </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>9</v>
       </c>
@@ -2094,9 +2185,8 @@
       <c r="E70" s="30">
         <v>62.407766990291265</v>
       </c>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>9</v>
       </c>
@@ -2112,9 +2202,8 @@
       <c r="E71" s="31">
         <v>31.837370242214533</v>
       </c>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>9</v>
       </c>
@@ -2130,9 +2219,8 @@
       <c r="E72" s="30">
         <v>34.403076923076924</v>
       </c>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>9</v>
       </c>
@@ -2148,9 +2236,8 @@
       <c r="E73" s="31">
         <v>38.646376811594202</v>
       </c>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>10</v>
       </c>
@@ -2166,9 +2253,8 @@
       <c r="E74" s="30">
         <v>34.483985765124558</v>
       </c>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>10</v>
       </c>
@@ -2184,9 +2270,8 @@
       <c r="E75" s="31">
         <v>38.462295081967213</v>
       </c>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>10</v>
       </c>
@@ -2202,9 +2287,8 @@
       <c r="E76" s="30">
         <v>48.660649819494587</v>
       </c>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>10</v>
       </c>
@@ -2220,9 +2304,8 @@
       <c r="E77" s="31">
         <v>16.653124999999999</v>
       </c>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>10</v>
       </c>
@@ -2238,9 +2321,8 @@
       <c r="E78" s="30">
         <v>34.952238805970147</v>
       </c>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>10</v>
       </c>
@@ -2256,9 +2338,8 @@
       <c r="E79" s="31">
         <v>32.8187134502924</v>
       </c>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>10</v>
       </c>
@@ -2274,9 +2355,8 @@
       <c r="E80" s="30">
         <v>72.477443609022558</v>
       </c>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>10</v>
       </c>
@@ -2292,9 +2372,8 @@
       <c r="E81" s="31">
         <v>46.160583941605836</v>
       </c>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>11</v>
       </c>
@@ -2310,9 +2389,8 @@
       <c r="E82" s="30">
         <v>30.36085626911315</v>
       </c>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>11</v>
       </c>
@@ -2328,9 +2406,8 @@
       <c r="E83" s="31">
         <v>69.600719424460436</v>
       </c>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>11</v>
       </c>
@@ -2346,9 +2423,8 @@
       <c r="E84" s="30">
         <v>56.151335311572701</v>
       </c>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>11</v>
       </c>
@@ -2364,9 +2440,8 @@
       <c r="E85" s="31">
         <v>20.2540192926045</v>
       </c>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>11</v>
       </c>
@@ -2382,9 +2457,8 @@
       <c r="E86" s="30">
         <v>33.728434504792332</v>
       </c>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>11</v>
       </c>
@@ -2400,9 +2474,8 @@
       <c r="E87" s="31">
         <v>57.192307692307693</v>
       </c>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>11</v>
       </c>
@@ -2418,9 +2491,8 @@
       <c r="E88" s="30">
         <v>56.950980392156865</v>
       </c>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>11</v>
       </c>
@@ -2436,9 +2508,8 @@
       <c r="E89" s="31">
         <v>45.662698412698411</v>
       </c>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>12</v>
       </c>
@@ -2454,9 +2525,8 @@
       <c r="E90" s="30">
         <v>26.282467532467532</v>
       </c>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>12</v>
       </c>
@@ -2472,9 +2542,8 @@
       <c r="E91" s="31">
         <v>63.984615384615381</v>
       </c>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>12</v>
       </c>
@@ -2490,9 +2559,8 @@
       <c r="E92" s="30">
         <v>44.949458483754512</v>
       </c>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>12</v>
       </c>
@@ -2508,9 +2576,8 @@
       <c r="E93" s="31">
         <v>24.631399317406142</v>
       </c>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>12</v>
       </c>
@@ -2526,9 +2593,8 @@
       <c r="E94" s="30">
         <v>41.976271186440677</v>
       </c>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>12</v>
       </c>
@@ -2544,9 +2610,8 @@
       <c r="E95" s="31">
         <v>55.394321766561511</v>
       </c>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>12</v>
       </c>
@@ -2562,9 +2627,8 @@
       <c r="E96" s="30">
         <v>57.011450381679388</v>
       </c>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>12</v>
       </c>
@@ -2580,9 +2644,8 @@
       <c r="E97" s="31">
         <v>66.840764331210195</v>
       </c>
-      <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -2598,9 +2661,8 @@
       <c r="E98" s="30">
         <v>11.635379061371841</v>
       </c>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>1</v>
       </c>
@@ -2616,9 +2678,8 @@
       <c r="E99" s="31">
         <v>60.603225806451611</v>
       </c>
-      <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>1</v>
       </c>
@@ -2634,9 +2695,8 @@
       <c r="E100" s="30">
         <v>25.253164556962027</v>
       </c>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -2652,9 +2712,8 @@
       <c r="E101" s="31">
         <v>47.585365853658537</v>
       </c>
-      <c r="F101" s="7"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>1</v>
       </c>
@@ -2670,9 +2729,8 @@
       <c r="E102" s="30">
         <v>63.655038759689923</v>
       </c>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -2688,9 +2746,8 @@
       <c r="E103" s="31">
         <v>40.134969325153371</v>
       </c>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>1</v>
       </c>
@@ -2706,9 +2763,8 @@
       <c r="E104" s="30">
         <v>64.858520900321537</v>
       </c>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -2724,9 +2780,8 @@
       <c r="E105" s="31">
         <v>81.05859375</v>
       </c>
-      <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -2742,9 +2797,8 @@
       <c r="E106" s="30">
         <v>17.274021352313166</v>
       </c>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>2</v>
       </c>
@@ -2760,9 +2814,8 @@
       <c r="E107" s="31">
         <v>28.030508474576273</v>
       </c>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -2778,9 +2831,8 @@
       <c r="E108" s="30">
         <v>38.073333333333331</v>
       </c>
-      <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>2</v>
       </c>
@@ -2796,9 +2848,8 @@
       <c r="E109" s="31">
         <v>34.952978056426332</v>
       </c>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2</v>
       </c>
@@ -2814,9 +2865,8 @@
       <c r="E110" s="30">
         <v>22.915094339622641</v>
       </c>
-      <c r="F110" s="7"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>2</v>
       </c>
@@ -2832,9 +2882,8 @@
       <c r="E111" s="31">
         <v>62.243346007604565</v>
       </c>
-      <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>2</v>
       </c>
@@ -2850,9 +2899,8 @@
       <c r="E112" s="30">
         <v>72.528239202657801</v>
       </c>
-      <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>2</v>
       </c>
@@ -2868,9 +2916,8 @@
       <c r="E113" s="31">
         <v>25.136094674556212</v>
       </c>
-      <c r="F113" s="7"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -2886,9 +2933,8 @@
       <c r="E114" s="30">
         <v>21.574257425742573</v>
       </c>
-      <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>3</v>
       </c>
@@ -2904,9 +2950,8 @@
       <c r="E115" s="31">
         <v>34.494880546075088</v>
       </c>
-      <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -2922,9 +2967,8 @@
       <c r="E116" s="30">
         <v>60.768292682926827</v>
       </c>
-      <c r="F116" s="7"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>3</v>
       </c>
@@ -2940,9 +2984,8 @@
       <c r="E117" s="31">
         <v>39.485294117647058</v>
       </c>
-      <c r="F117" s="7"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -2958,9 +3001,8 @@
       <c r="E118" s="30">
         <v>19.534534534534533</v>
       </c>
-      <c r="F118" s="7"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>3</v>
       </c>
@@ -2976,9 +3018,8 @@
       <c r="E119" s="31">
         <v>28.647761194029851</v>
       </c>
-      <c r="F119" s="7"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>3</v>
       </c>
@@ -2994,9 +3035,8 @@
       <c r="E120" s="30">
         <v>52.413897280966765</v>
       </c>
-      <c r="F120" s="7"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>3</v>
       </c>
@@ -3012,9 +3052,8 @@
       <c r="E121" s="31">
         <v>37.147909967845656</v>
       </c>
-      <c r="F121" s="7"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>4</v>
       </c>
@@ -3030,9 +3069,8 @@
       <c r="E122" s="30">
         <v>21.463556851311953</v>
       </c>
-      <c r="F122" s="7"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>4</v>
       </c>
@@ -3048,9 +3086,8 @@
       <c r="E123" s="31">
         <v>24.64</v>
       </c>
-      <c r="F123" s="7"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>4</v>
       </c>
@@ -3066,9 +3103,8 @@
       <c r="E124" s="30">
         <v>41.003039513677813</v>
       </c>
-      <c r="F124" s="7"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>4</v>
       </c>
@@ -3084,9 +3120,8 @@
       <c r="E125" s="31">
         <v>29.279605263157894</v>
       </c>
-      <c r="F125" s="7"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>4</v>
       </c>
@@ -3102,9 +3137,8 @@
       <c r="E126" s="30">
         <v>75.166666666666671</v>
       </c>
-      <c r="F126" s="7"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>4</v>
       </c>
@@ -3120,9 +3154,8 @@
       <c r="E127" s="31">
         <v>19.143695014662757</v>
       </c>
-      <c r="F127" s="7"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>4</v>
       </c>
@@ -3138,9 +3171,8 @@
       <c r="E128" s="30">
         <v>54.949367088607595</v>
       </c>
-      <c r="F128" s="7"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>4</v>
       </c>
@@ -3156,9 +3188,8 @@
       <c r="E129" s="31">
         <v>81.135338345864668</v>
       </c>
-      <c r="F129" s="7"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -3174,9 +3205,8 @@
       <c r="E130" s="30">
         <v>15.350993377483444</v>
       </c>
-      <c r="F130" s="7"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>5</v>
       </c>
@@ -3192,9 +3222,8 @@
       <c r="E131" s="31">
         <v>16.023880597014927</v>
       </c>
-      <c r="F131" s="7"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -3210,9 +3239,8 @@
       <c r="E132" s="30">
         <v>30.315602836879432</v>
       </c>
-      <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>5</v>
       </c>
@@ -3228,9 +3256,8 @@
       <c r="E133" s="31">
         <v>40.26627218934911</v>
       </c>
-      <c r="F133" s="7"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>5</v>
       </c>
@@ -3246,9 +3273,8 @@
       <c r="E134" s="30">
         <v>61.794285714285714</v>
       </c>
-      <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>5</v>
       </c>
@@ -3264,9 +3290,8 @@
       <c r="E135" s="31">
         <v>56.233438485804413</v>
       </c>
-      <c r="F135" s="7"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>5</v>
       </c>
@@ -3282,9 +3307,8 @@
       <c r="E136" s="30">
         <v>57.80952380952381</v>
       </c>
-      <c r="F136" s="7"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>5</v>
       </c>
@@ -3300,9 +3324,8 @@
       <c r="E137" s="31">
         <v>56.89399293286219</v>
       </c>
-      <c r="F137" s="7"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -3318,9 +3341,8 @@
       <c r="E138" s="30">
         <v>25.262295081967213</v>
       </c>
-      <c r="F138" s="7"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>6</v>
       </c>
@@ -3336,9 +3358,8 @@
       <c r="E139" s="31">
         <v>58.012903225806454</v>
       </c>
-      <c r="F139" s="7"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -3354,9 +3375,8 @@
       <c r="E140" s="30">
         <v>45.221088435374149</v>
       </c>
-      <c r="F140" s="7"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>6</v>
       </c>
@@ -3372,9 +3392,8 @@
       <c r="E141" s="31">
         <v>66.258899676375407</v>
       </c>
-      <c r="F141" s="7"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -3390,9 +3409,8 @@
       <c r="E142" s="30">
         <v>22.26158940397351</v>
       </c>
-      <c r="F142" s="7"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>6</v>
       </c>
@@ -3408,9 +3426,8 @@
       <c r="E143" s="31">
         <v>63.618749999999999</v>
       </c>
-      <c r="F143" s="7"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -3426,9 +3443,8 @@
       <c r="E144" s="30">
         <v>16.315186246418339</v>
       </c>
-      <c r="F144" s="7"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>6</v>
       </c>
@@ -3444,9 +3460,8 @@
       <c r="E145" s="31">
         <v>40.734693877551024</v>
       </c>
-      <c r="F145" s="7"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>7</v>
       </c>
@@ -3462,9 +3477,8 @@
       <c r="E146" s="30">
         <v>30.699059561128525</v>
       </c>
-      <c r="F146" s="7"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>7</v>
       </c>
@@ -3480,9 +3494,8 @@
       <c r="E147" s="31">
         <v>70.14195583596215</v>
       </c>
-      <c r="F147" s="7"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>7</v>
       </c>
@@ -3498,9 +3511,8 @@
       <c r="E148" s="30">
         <v>60.115079365079367</v>
       </c>
-      <c r="F148" s="7"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>7</v>
       </c>
@@ -3516,9 +3528,8 @@
       <c r="E149" s="31">
         <v>35.788235294117648</v>
       </c>
-      <c r="F149" s="7"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>7</v>
       </c>
@@ -3534,9 +3545,8 @@
       <c r="E150" s="30">
         <v>31.530249110320284</v>
       </c>
-      <c r="F150" s="7"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>7</v>
       </c>
@@ -3552,9 +3562,8 @@
       <c r="E151" s="31">
         <v>53.439688715953309</v>
       </c>
-      <c r="F151" s="7"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>7</v>
       </c>
@@ -3570,9 +3579,8 @@
       <c r="E152" s="30">
         <v>47.193442622950819</v>
       </c>
-      <c r="F152" s="7"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>7</v>
       </c>
@@ -3588,9 +3596,8 @@
       <c r="E153" s="31">
         <v>42.742690058479532</v>
       </c>
-      <c r="F153" s="7"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>8</v>
       </c>
@@ -3606,9 +3613,8 @@
       <c r="E154" s="30">
         <v>13.201986754966887</v>
       </c>
-      <c r="F154" s="7"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>8</v>
       </c>
@@ -3624,9 +3630,8 @@
       <c r="E155" s="31">
         <v>81.199275362318843</v>
       </c>
-      <c r="F155" s="7"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>8</v>
       </c>
@@ -3642,9 +3647,8 @@
       <c r="E156" s="30">
         <v>72.520134228187914</v>
       </c>
-      <c r="F156" s="7"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>8</v>
       </c>
@@ -3660,9 +3664,8 @@
       <c r="E157" s="31">
         <v>45.306748466257666</v>
       </c>
-      <c r="F157" s="7"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>8</v>
       </c>
@@ -3678,9 +3681,8 @@
       <c r="E158" s="30">
         <v>44.598662207357862</v>
       </c>
-      <c r="F158" s="7"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>8</v>
       </c>
@@ -3696,9 +3698,8 @@
       <c r="E159" s="31">
         <v>73.268000000000001</v>
       </c>
-      <c r="F159" s="7"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>8</v>
       </c>
@@ -3714,9 +3715,8 @@
       <c r="E160" s="30">
         <v>26.880281690140844</v>
       </c>
-      <c r="F160" s="7"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>8</v>
       </c>
@@ -3732,9 +3732,8 @@
       <c r="E161" s="31">
         <v>36.514534883720927</v>
       </c>
-      <c r="F161" s="7"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>9</v>
       </c>
@@ -3750,9 +3749,8 @@
       <c r="E162" s="30">
         <v>20.861445783132531</v>
       </c>
-      <c r="F162" s="7"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>9</v>
       </c>
@@ -3768,9 +3766,8 @@
       <c r="E163" s="31">
         <v>44.297935103244839</v>
       </c>
-      <c r="F163" s="7"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>9</v>
       </c>
@@ -3786,9 +3783,8 @@
       <c r="E164" s="30">
         <v>62.013651877133107</v>
       </c>
-      <c r="F164" s="7"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>9</v>
       </c>
@@ -3804,9 +3800,8 @@
       <c r="E165" s="31">
         <v>69.972222222222229</v>
       </c>
-      <c r="F165" s="7"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>9</v>
       </c>
@@ -3822,9 +3817,8 @@
       <c r="E166" s="30">
         <v>60.08653846153846</v>
       </c>
-      <c r="F166" s="7"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>9</v>
       </c>
@@ -3840,9 +3834,8 @@
       <c r="E167" s="31">
         <v>48.802325581395351</v>
       </c>
-      <c r="F167" s="7"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>9</v>
       </c>
@@ -3858,9 +3851,8 @@
       <c r="E168" s="30">
         <v>63.102649006622514</v>
       </c>
-      <c r="F168" s="7"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>9</v>
       </c>
@@ -3876,9 +3868,8 @@
       <c r="E169" s="31">
         <v>44.600628930817614</v>
       </c>
-      <c r="F169" s="7"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>10</v>
       </c>
@@ -3894,9 +3885,8 @@
       <c r="E170" s="30">
         <v>31.426877470355731</v>
       </c>
-      <c r="F170" s="7"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>10</v>
       </c>
@@ -3912,9 +3902,8 @@
       <c r="E171" s="31">
         <v>42.003174603174607</v>
       </c>
-      <c r="F171" s="7"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>10</v>
       </c>
@@ -3930,9 +3919,8 @@
       <c r="E172" s="30">
         <v>48.774480712166174</v>
       </c>
-      <c r="F172" s="7"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>10</v>
       </c>
@@ -3948,9 +3936,8 @@
       <c r="E173" s="31">
         <v>16.415624999999999</v>
       </c>
-      <c r="F173" s="7"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>10</v>
       </c>
@@ -3966,9 +3953,8 @@
       <c r="E174" s="30">
         <v>52.73841059602649</v>
       </c>
-      <c r="F174" s="7"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>10</v>
       </c>
@@ -3984,9 +3970,8 @@
       <c r="E175" s="31">
         <v>38.1</v>
       </c>
-      <c r="F175" s="7"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>10</v>
       </c>
@@ -4002,9 +3987,8 @@
       <c r="E176" s="30">
         <v>31.744262295081967</v>
       </c>
-      <c r="F176" s="7"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>10</v>
       </c>
@@ -4020,9 +4004,8 @@
       <c r="E177" s="31">
         <v>30.85171102661597</v>
       </c>
-      <c r="F177" s="7"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>11</v>
       </c>
@@ -4038,9 +4021,8 @@
       <c r="E178" s="30">
         <v>18.636015325670499</v>
       </c>
-      <c r="F178" s="7"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>11</v>
       </c>
@@ -4056,9 +4038,8 @@
       <c r="E179" s="31">
         <v>47.936936936936938</v>
       </c>
-      <c r="F179" s="7"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>11</v>
       </c>
@@ -4074,9 +4055,8 @@
       <c r="E180" s="30">
         <v>53.772058823529413</v>
       </c>
-      <c r="F180" s="7"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>11</v>
       </c>
@@ -4092,9 +4072,8 @@
       <c r="E181" s="31">
         <v>43.238095238095241</v>
       </c>
-      <c r="F181" s="7"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>11</v>
       </c>
@@ -4110,9 +4089,8 @@
       <c r="E182" s="30">
         <v>76.422145328719722</v>
       </c>
-      <c r="F182" s="7"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>11</v>
       </c>
@@ -4128,9 +4106,8 @@
       <c r="E183" s="31">
         <v>18.737037037037037</v>
       </c>
-      <c r="F183" s="7"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>11</v>
       </c>
@@ -4146,9 +4123,8 @@
       <c r="E184" s="30">
         <v>39.895348837209305</v>
       </c>
-      <c r="F184" s="7"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>11</v>
       </c>
@@ -4164,9 +4140,8 @@
       <c r="E185" s="31">
         <v>36.784615384615385</v>
       </c>
-      <c r="F185" s="7"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>12</v>
       </c>
@@ -4182,9 +4157,8 @@
       <c r="E186" s="30">
         <v>16.626262626262626</v>
       </c>
-      <c r="F186" s="7"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>12</v>
       </c>
@@ -4200,9 +4174,8 @@
       <c r="E187" s="31">
         <v>57.245901639344261</v>
       </c>
-      <c r="F187" s="7"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>12</v>
       </c>
@@ -4218,9 +4191,8 @@
       <c r="E188" s="30">
         <v>42.07449856733524</v>
       </c>
-      <c r="F188" s="7"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>12</v>
       </c>
@@ -4236,9 +4208,8 @@
       <c r="E189" s="31">
         <v>17.941176470588236</v>
       </c>
-      <c r="F189" s="7"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>12</v>
       </c>
@@ -4254,9 +4225,8 @@
       <c r="E190" s="30">
         <v>64.741071428571431</v>
       </c>
-      <c r="F190" s="7"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>12</v>
       </c>
@@ -4272,9 +4242,8 @@
       <c r="E191" s="31">
         <v>59.401197604790418</v>
       </c>
-      <c r="F191" s="7"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>12</v>
       </c>
@@ -4290,9 +4259,8 @@
       <c r="E192" s="30">
         <v>51.942857142857143</v>
       </c>
-      <c r="F192" s="7"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>12</v>
       </c>
@@ -4308,9 +4276,8 @@
       <c r="E193" s="31">
         <v>57.878980891719742</v>
       </c>
-      <c r="F193" s="7"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>1</v>
       </c>
@@ -4326,9 +4293,8 @@
       <c r="E194" s="30">
         <v>28.834355828220858</v>
       </c>
-      <c r="F194" s="7"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -4344,9 +4310,8 @@
       <c r="E195" s="31">
         <v>56.152173913043477</v>
       </c>
-      <c r="F195" s="7"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>1</v>
       </c>
@@ -4362,9 +4327,8 @@
       <c r="E196" s="30">
         <v>47.735507246376812</v>
       </c>
-      <c r="F196" s="7"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -4380,9 +4344,8 @@
       <c r="E197" s="31">
         <v>59.535384615384615</v>
       </c>
-      <c r="F197" s="7"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>1</v>
       </c>
@@ -4398,9 +4361,8 @@
       <c r="E198" s="30">
         <v>54.733333333333334</v>
       </c>
-      <c r="F198" s="7"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -4416,9 +4378,8 @@
       <c r="E199" s="31">
         <v>37.684848484848487</v>
       </c>
-      <c r="F199" s="7"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>1</v>
       </c>
@@ -4434,9 +4395,8 @@
       <c r="E200" s="30">
         <v>24.390532544378697</v>
       </c>
-      <c r="F200" s="7"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>1</v>
       </c>
@@ -4452,9 +4412,8 @@
       <c r="E201" s="31">
         <v>40.641104294478531</v>
       </c>
-      <c r="F201" s="7"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>2</v>
       </c>
@@ -4470,9 +4429,8 @@
       <c r="E202" s="30">
         <v>23.367924528301888</v>
       </c>
-      <c r="F202" s="7"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>2</v>
       </c>
@@ -4488,9 +4446,8 @@
       <c r="E203" s="31">
         <v>26.816993464052288</v>
       </c>
-      <c r="F203" s="7"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>2</v>
       </c>
@@ -4506,9 +4463,8 @@
       <c r="E204" s="30">
         <v>48.751937984496124</v>
       </c>
-      <c r="F204" s="7"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>2</v>
       </c>
@@ -4524,9 +4480,8 @@
       <c r="E205" s="31">
         <v>58.104895104895107</v>
       </c>
-      <c r="F205" s="7"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>2</v>
       </c>
@@ -4542,9 +4497,8 @@
       <c r="E206" s="30">
         <v>78.879245283018861</v>
       </c>
-      <c r="F206" s="7"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>2</v>
       </c>
@@ -4560,9 +4514,8 @@
       <c r="E207" s="31">
         <v>53.617328519855597</v>
       </c>
-      <c r="F207" s="7"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>2</v>
       </c>
@@ -4578,9 +4531,8 @@
       <c r="E208" s="30">
         <v>59.993920972644375</v>
       </c>
-      <c r="F208" s="7"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>2</v>
       </c>
@@ -4596,9 +4548,8 @@
       <c r="E209" s="31">
         <v>23.959537572254334</v>
       </c>
-      <c r="F209" s="7"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>3</v>
       </c>
@@ -4614,9 +4565,8 @@
       <c r="E210" s="30">
         <v>24.19047619047619</v>
       </c>
-      <c r="F210" s="7"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>3</v>
       </c>
@@ -4632,9 +4582,8 @@
       <c r="E211" s="31">
         <v>29.338870431893689</v>
       </c>
-      <c r="F211" s="7"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>3</v>
       </c>
@@ -4650,9 +4599,8 @@
       <c r="E212" s="30">
         <v>51.93687707641196</v>
       </c>
-      <c r="F212" s="7"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>3</v>
       </c>
@@ -4668,9 +4616,8 @@
       <c r="E213" s="31">
         <v>25.751612903225805</v>
       </c>
-      <c r="F213" s="7"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>3</v>
       </c>
@@ -4686,9 +4633,8 @@
       <c r="E214" s="30">
         <v>48.81782945736434</v>
       </c>
-      <c r="F214" s="7"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>3</v>
       </c>
@@ -4704,9 +4650,8 @@
       <c r="E215" s="31">
         <v>46.286206896551725</v>
       </c>
-      <c r="F215" s="7"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>3</v>
       </c>
@@ -4722,9 +4667,8 @@
       <c r="E216" s="30">
         <v>30.69283276450512</v>
       </c>
-      <c r="F216" s="7"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>3</v>
       </c>
@@ -4740,9 +4684,8 @@
       <c r="E217" s="31">
         <v>55.388235294117649</v>
       </c>
-      <c r="F217" s="7"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>4</v>
       </c>
@@ -4758,9 +4701,8 @@
       <c r="E218" s="30">
         <v>27.061776061776062</v>
       </c>
-      <c r="F218" s="7"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>4</v>
       </c>
@@ -4776,9 +4718,8 @@
       <c r="E219" s="31">
         <v>22.00380228136882</v>
       </c>
-      <c r="F219" s="7"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>4</v>
       </c>
@@ -4794,9 +4735,8 @@
       <c r="E220" s="30">
         <v>36.92</v>
       </c>
-      <c r="F220" s="7"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>4</v>
       </c>
@@ -4812,9 +4752,8 @@
       <c r="E221" s="31">
         <v>29.494661921708186</v>
       </c>
-      <c r="F221" s="7"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>4</v>
       </c>
@@ -4830,9 +4769,8 @@
       <c r="E222" s="30">
         <v>61.828571428571429</v>
       </c>
-      <c r="F222" s="7"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>4</v>
       </c>
@@ -4848,9 +4786,8 @@
       <c r="E223" s="31">
         <v>22.421404682274247</v>
       </c>
-      <c r="F223" s="7"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>4</v>
       </c>
@@ -4866,9 +4803,8 @@
       <c r="E224" s="30">
         <v>53</v>
       </c>
-      <c r="F224" s="7"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>4</v>
       </c>
@@ -4884,9 +4820,8 @@
       <c r="E225" s="31">
         <v>84.052830188679252</v>
       </c>
-      <c r="F225" s="7"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>5</v>
       </c>
@@ -4902,9 +4837,8 @@
       <c r="E226" s="30">
         <v>29.801498127340825</v>
       </c>
-      <c r="F226" s="7"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>5</v>
       </c>
@@ -4920,9 +4854,8 @@
       <c r="E227" s="31">
         <v>36.266932270916335</v>
       </c>
-      <c r="F227" s="7"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>5</v>
       </c>
@@ -4938,9 +4871,8 @@
       <c r="E228" s="30">
         <v>43.200598802395213</v>
       </c>
-      <c r="F228" s="7"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>5</v>
       </c>
@@ -4956,9 +4888,8 @@
       <c r="E229" s="31">
         <v>55.630434782608695</v>
       </c>
-      <c r="F229" s="7"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>5</v>
       </c>
@@ -4974,9 +4905,8 @@
       <c r="E230" s="30">
         <v>64.98571428571428</v>
       </c>
-      <c r="F230" s="7"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>5</v>
       </c>
@@ -4992,9 +4922,8 @@
       <c r="E231" s="31">
         <v>25.536000000000001</v>
       </c>
-      <c r="F231" s="7"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>5</v>
       </c>
@@ -5010,9 +4939,8 @@
       <c r="E232" s="30">
         <v>49.468992248062015</v>
       </c>
-      <c r="F232" s="7"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>5</v>
       </c>
@@ -5028,9 +4956,8 @@
       <c r="E233" s="31">
         <v>16.20552147239264</v>
       </c>
-      <c r="F233" s="7"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>6</v>
       </c>
@@ -5046,9 +4973,8 @@
       <c r="E234" s="30">
         <v>25.603124999999999</v>
       </c>
-      <c r="F234" s="7"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>6</v>
       </c>
@@ -5064,9 +4990,8 @@
       <c r="E235" s="31">
         <v>62.428571428571431</v>
       </c>
-      <c r="F235" s="7"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>6</v>
       </c>
@@ -5082,9 +5007,8 @@
       <c r="E236" s="30">
         <v>60.272727272727273</v>
       </c>
-      <c r="F236" s="7"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>6</v>
       </c>
@@ -5100,9 +5024,8 @@
       <c r="E237" s="31">
         <v>60.545454545454547</v>
       </c>
-      <c r="F237" s="7"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>6</v>
       </c>
@@ -5118,9 +5041,8 @@
       <c r="E238" s="30">
         <v>48.421828908554573</v>
       </c>
-      <c r="F238" s="7"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>6</v>
       </c>
@@ -5136,9 +5058,8 @@
       <c r="E239" s="31">
         <v>77.172549019607843</v>
       </c>
-      <c r="F239" s="7"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>6</v>
       </c>
@@ -5154,9 +5075,8 @@
       <c r="E240" s="30">
         <v>59.370370370370374</v>
       </c>
-      <c r="F240" s="7"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>6</v>
       </c>
@@ -5172,9 +5092,8 @@
       <c r="E241" s="31">
         <v>25.359712230215827</v>
       </c>
-      <c r="F241" s="7"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>7</v>
       </c>
@@ -5190,9 +5109,8 @@
       <c r="E242" s="30">
         <v>24.891156462585034</v>
       </c>
-      <c r="F242" s="7"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>7</v>
       </c>
@@ -5208,9 +5126,8 @@
       <c r="E243" s="31">
         <v>36.003412969283275</v>
       </c>
-      <c r="F243" s="7"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>7</v>
       </c>
@@ -5226,9 +5143,8 @@
       <c r="E244" s="30">
         <v>27.651651651651651</v>
       </c>
-      <c r="F244" s="7"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>7</v>
       </c>
@@ -5244,9 +5160,8 @@
       <c r="E245" s="31">
         <v>31.743034055727556</v>
       </c>
-      <c r="F245" s="7"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>7</v>
       </c>
@@ -5262,9 +5177,8 @@
       <c r="E246" s="30">
         <v>33.79874213836478</v>
       </c>
-      <c r="F246" s="7"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>7</v>
       </c>
@@ -5280,9 +5194,8 @@
       <c r="E247" s="31">
         <v>51.155115511551152</v>
       </c>
-      <c r="F247" s="7"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>7</v>
       </c>
@@ -5298,9 +5211,8 @@
       <c r="E248" s="30">
         <v>31.906354515050168</v>
       </c>
-      <c r="F248" s="7"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>7</v>
       </c>
@@ -5316,9 +5228,8 @@
       <c r="E249" s="31">
         <v>17.03095975232198</v>
       </c>
-      <c r="F249" s="7"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>8</v>
       </c>
@@ -5334,9 +5245,8 @@
       <c r="E250" s="30">
         <v>38.694444444444443</v>
       </c>
-      <c r="F250" s="7"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>8</v>
       </c>
@@ -5352,9 +5262,8 @@
       <c r="E251" s="31">
         <v>36.099099099099099</v>
       </c>
-      <c r="F251" s="7"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>8</v>
       </c>
@@ -5370,9 +5279,8 @@
       <c r="E252" s="30">
         <v>61.135646687697161</v>
       </c>
-      <c r="F252" s="7"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>8</v>
       </c>
@@ -5388,9 +5296,8 @@
       <c r="E253" s="31">
         <v>40.411347517730498</v>
       </c>
-      <c r="F253" s="7"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>8</v>
       </c>
@@ -5406,9 +5313,8 @@
       <c r="E254" s="30">
         <v>34.090566037735847</v>
       </c>
-      <c r="F254" s="7"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>8</v>
       </c>
@@ -5424,9 +5330,8 @@
       <c r="E255" s="31">
         <v>75.767527675276753</v>
       </c>
-      <c r="F255" s="7"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>8</v>
       </c>
@@ -5442,9 +5347,8 @@
       <c r="E256" s="30">
         <v>59.245614035087719</v>
       </c>
-      <c r="F256" s="7"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>8</v>
       </c>
@@ -5460,9 +5364,8 @@
       <c r="E257" s="31">
         <v>66.517460317460319</v>
       </c>
-      <c r="F257" s="7"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>9</v>
       </c>
@@ -5478,9 +5381,8 @@
       <c r="E258" s="30">
         <v>12.959375</v>
       </c>
-      <c r="F258" s="7"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>9</v>
       </c>
@@ -5496,9 +5398,8 @@
       <c r="E259" s="31">
         <v>67.256916996047437</v>
       </c>
-      <c r="F259" s="7"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>9</v>
       </c>
@@ -5514,9 +5415,8 @@
       <c r="E260" s="30">
         <v>20.346863468634687</v>
       </c>
-      <c r="F260" s="7"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>9</v>
       </c>
@@ -5532,9 +5432,8 @@
       <c r="E261" s="31">
         <v>65.816949152542378</v>
       </c>
-      <c r="F261" s="7"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>9</v>
       </c>
@@ -5550,9 +5449,8 @@
       <c r="E262" s="30">
         <v>39</v>
       </c>
-      <c r="F262" s="7"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>9</v>
       </c>
@@ -5568,9 +5466,8 @@
       <c r="E263" s="31">
         <v>61.006920415224911</v>
       </c>
-      <c r="F263" s="7"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>9</v>
       </c>
@@ -5586,9 +5483,8 @@
       <c r="E264" s="30">
         <v>35.710526315789473</v>
       </c>
-      <c r="F264" s="7"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>9</v>
       </c>
@@ -5604,9 +5500,8 @@
       <c r="E265" s="31">
         <v>75.885496183206101</v>
       </c>
-      <c r="F265" s="7"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>10</v>
       </c>
@@ -5622,9 +5517,8 @@
       <c r="E266" s="30">
         <v>22.527868852459015</v>
       </c>
-      <c r="F266" s="7"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>10</v>
       </c>
@@ -5640,9 +5534,8 @@
       <c r="E267" s="31">
         <v>47.44027303754266</v>
       </c>
-      <c r="F267" s="7"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>10</v>
       </c>
@@ -5658,9 +5551,8 @@
       <c r="E268" s="30">
         <v>57.996845425867505</v>
       </c>
-      <c r="F268" s="7"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>10</v>
       </c>
@@ -5676,9 +5568,8 @@
       <c r="E269" s="31">
         <v>76.206896551724142</v>
       </c>
-      <c r="F269" s="7"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>10</v>
       </c>
@@ -5694,9 +5585,8 @@
       <c r="E270" s="30">
         <v>22.76872964169381</v>
       </c>
-      <c r="F270" s="7"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>10</v>
       </c>
@@ -5712,9 +5602,8 @@
       <c r="E271" s="31">
         <v>45.064516129032256</v>
       </c>
-      <c r="F271" s="7"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>10</v>
       </c>
@@ -5730,9 +5619,8 @@
       <c r="E272" s="30">
         <v>62.964179104477608</v>
       </c>
-      <c r="F272" s="7"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>10</v>
       </c>
@@ -5748,7 +5636,6 @@
       <c r="E273" s="31">
         <v>67.870090634441084</v>
       </c>
-      <c r="F273" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5760,25 +5647,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" hidden="1"/>
+    <col min="5" max="5" width="24" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
         <v>12</v>
       </c>
@@ -5793,8 +5681,9 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
@@ -5809,23 +5698,24 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="9"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
@@ -5835,20 +5725,24 @@
       <c r="D5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
@@ -5858,21 +5752,25 @@
       <c r="D6" s="12">
         <v>21.97406340057637</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="38">
-        <v>2016</v>
-      </c>
-      <c r="I6" s="24" t="s">
+      <c r="E6" s="22">
+        <f>D6*C6</f>
+        <v>263.68876080691643</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="38">
+        <v>2016</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="38">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="38">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
@@ -5882,15 +5780,19 @@
       <c r="D7" s="15">
         <v>54.121621621621621</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="39"/>
-      <c r="I7" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="22">
+        <f t="shared" ref="E7:E10" si="0">D7*C7</f>
+        <v>3193.1756756756758</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="39"/>
+      <c r="J7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -5900,13 +5802,17 @@
       <c r="D8" s="15">
         <v>37.773946360153253</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="22">
+        <f t="shared" si="0"/>
+        <v>2908.5938697318006</v>
+      </c>
+      <c r="F8" s="22"/>
       <c r="G8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
@@ -5916,17 +5822,21 @@
       <c r="D9" s="15">
         <v>32.54807692307692</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="22">
+        <f t="shared" si="0"/>
+        <v>1074.0865384615383</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="I9" s="26" t="s">
+      <c r="H9" s="27"/>
+      <c r="J9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
@@ -5936,75 +5846,132 @@
       <c r="D10" s="18">
         <v>75.493006993006986</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="22">
+        <f t="shared" si="0"/>
+        <v>3850.1433566433561</v>
+      </c>
+      <c r="F10" s="22"/>
       <c r="G10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="43">
+        <f>SUMPRODUCT((TbItemVenda[Vendedor]=B6)*(TbItemVenda[Ano]=H6),TbItemVenda[Quantidade],TbItemVenda[Preço Unitário])</f>
+        <v>7474.0611257348191</v>
+      </c>
       <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="43">
+        <f>SUMPRODUCT(((TbItemVenda[Vendedor]=J6)+(TbItemVenda[Vendedor]=J7))*(TbItemVenda[Ano]=K6),TbItemVenda[Quantidade],TbItemVenda[Preço Unitário])</f>
+        <v>38933.241005711279</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="29"/>
+      <c r="D11" s="21">
+        <f>SUMPRODUCT(C6:C10,D6:D10)</f>
+        <v>11289.688201319288</v>
+      </c>
+      <c r="E11" s="7">
+        <f>SUM(E6:E10)</f>
+        <v>11289.688201319288</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="29"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="29"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="29"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="29"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="29"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="29"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="29"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="29"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
       <c r="D19" s="7"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7 I6 I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G7 J6:J7">
       <formula1>"Anakin,Barry Allen,Kal-El,Logan,Padmé Amidala,Rachel Roth,Victor Von Doom,Wanda Maximoff"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Módulo 11 - Formulas avançadas/aula-somarproduto.xlsx
+++ b/Módulo 11 - Formulas avançadas/aula-somarproduto.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="33">
   <si>
     <t>Mês</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>SOMARPRODUTO(matriz1=critério1*matriz2=ccriterio2;matriz3;matriz4)</t>
+  </si>
+  <si>
+    <t>=SOMARPRODUTO((TbItemVenda[Vendedor]=B6)*(TbItemVenda[Ano]=H6);TbItemVenda[Quantidade];TbItemVenda[Preço Unitário])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra pelo vendedor em questão e faz a multiplição dos intervalos: quantidade e preço unitário </t>
+  </si>
+  <si>
+    <t>Seleciona os dois vendedores em questão e o ano e faz os calculos necessários com os intervalos</t>
   </si>
 </sst>
 </file>
@@ -282,7 +291,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -363,6 +372,10 @@
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -375,10 +388,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -386,102 +396,6 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -550,6 +464,31 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -558,6 +497,29 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
         <bottom/>
       </border>
     </dxf>
@@ -603,6 +565,30 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -612,6 +598,30 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -675,11 +685,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbItemVenda" displayName="TbItemVenda" ref="A1:E273" tableBorderDxfId="10">
   <autoFilter ref="A1:E273"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Mês" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="Ano" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="Vendedor" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Quantidade" dataDxfId="6" totalsRowDxfId="3" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="1" name="Mês" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Ano" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Vendedor" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="Quantidade" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Vírgula"/>
+    <tableColumn id="5" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5647,10 +5657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5725,10 +5735,10 @@
       <c r="D5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="16" t="s">
         <v>2</v>
       </c>
@@ -5757,16 +5767,16 @@
         <v>263.68876080691643</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="40">
         <v>2016</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="40">
         <v>2016</v>
       </c>
     </row>
@@ -5785,12 +5795,12 @@
         <v>3193.1756756756758</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="41"/>
       <c r="J7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
@@ -5852,12 +5862,12 @@
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="43">
+      <c r="H10" s="39">
         <f>SUMPRODUCT((TbItemVenda[Vendedor]=B6)*(TbItemVenda[Ano]=H6),TbItemVenda[Quantidade],TbItemVenda[Preço Unitário])</f>
         <v>7474.0611257348191</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="43">
+      <c r="K10" s="39">
         <f>SUMPRODUCT(((TbItemVenda[Vendedor]=J6)+(TbItemVenda[Vendedor]=J7))*(TbItemVenda[Ano]=K6),TbItemVenda[Quantidade],TbItemVenda[Preço Unitário])</f>
         <v>38933.241005711279</v>
       </c>
@@ -5958,6 +5968,21 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
